--- a/julia/RFFO/result_RFFO_Zkt.xlsx
+++ b/julia/RFFO/result_RFFO_Zkt.xlsx
@@ -455,7 +455,7 @@
         <v>0.18</v>
       </c>
       <c r="D2">
-        <v>0.0183</v>
+        <v>0.0213</v>
       </c>
       <c r="E2">
         <v>19450.62</v>
@@ -464,10 +464,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0195</v>
+        <v>0.0191</v>
       </c>
       <c r="H2">
-        <v>0.0378</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -475,25 +475,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>37853.34</v>
+        <v>37758.1</v>
       </c>
       <c r="C3">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="D3">
-        <v>0.2513</v>
+        <v>0.3561</v>
       </c>
       <c r="E3">
-        <v>37795.84</v>
+        <v>37745.37</v>
       </c>
       <c r="F3">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="G3">
-        <v>0.16</v>
+        <v>0.1722</v>
       </c>
       <c r="H3">
-        <v>0.4113</v>
+        <v>0.5283</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -507,7 +507,7 @@
         <v>0.03</v>
       </c>
       <c r="D4">
-        <v>0.0696</v>
+        <v>0.0742</v>
       </c>
       <c r="E4">
         <v>69396.58</v>
@@ -516,10 +516,10 @@
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0.0534</v>
+        <v>0.0602</v>
       </c>
       <c r="H4">
-        <v>0.123</v>
+        <v>0.1344</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -527,25 +527,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>131350.06</v>
+        <v>131324.04</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.4777</v>
+        <v>0.7748</v>
       </c>
       <c r="E5">
-        <v>131304.56</v>
+        <v>131311.02</v>
       </c>
       <c r="F5">
         <v>0.01</v>
       </c>
       <c r="G5">
-        <v>0.1509</v>
+        <v>0.1347</v>
       </c>
       <c r="H5">
-        <v>0.6286</v>
+        <v>0.9095</v>
       </c>
     </row>
   </sheetData>
